--- a/test_youtube/done/groundtruth/face2_02_Kemisara.xlsx
+++ b/test_youtube/done/groundtruth/face2_02_Kemisara.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGAT\Desktop\done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EGAT\Documents\GitHub\AICARE\test_youtube\done\groundtruth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A03D8D-2B3C-48B4-8CC6-0DA7CDE0896B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ED9472-A4A2-4EDF-88C8-369281A2D237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,8 +583,8 @@
   </sheetPr>
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
